--- a/Documentos/Lista de requerimientos F y No F.xlsx
+++ b/Documentos/Lista de requerimientos F y No F.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johny\Documents\2023 cursos\Analisis y Diseño\Lab\Proyecto1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lecx_\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117289CF-CB30-4B82-8CA1-588011DA193D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="17970" windowHeight="6240" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requerimientos Solicitados" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="102">
   <si>
     <t>ID Requisito</t>
   </si>
@@ -318,18 +319,85 @@
   <si>
     <t>Encriptación de contraseñas: Se debe codificar y encryptar las contraseñas para evitar la pérdida de seguridad</t>
   </si>
+  <si>
+    <t>RFN-003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La aplicación web debe estar disponible hasta la calificacion de Fase1.</t>
+  </si>
+  <si>
+    <t>RFN-004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La aplicación debe funcionar solamente Windows</t>
+  </si>
+  <si>
+    <t>RFN-005</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>La aplicación web debe funcionar en firefox, Chrome, IE, etc.</t>
+    </r>
+  </si>
+  <si>
+    <t>RFN-006</t>
+  </si>
+  <si>
+    <t>La aplicación web debe funcionar en PC.</t>
+  </si>
+  <si>
+    <t>RFN-007</t>
+  </si>
+  <si>
+    <t>La aplicación de recuperar la información del usuario y mostrarla en menos de 5 segundos.</t>
+  </si>
+  <si>
+    <t>RFN-008</t>
+  </si>
+  <si>
+    <t>El usuario no puede experimentar fallas en funcionalidades liberadas parcialmente en la aplicación.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -358,12 +426,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,7 +715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1267,11 +1339,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1304,9 +1376,55 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>